--- a/tests/TestFiles/utilitiesgui/materialinfo.xlsx
+++ b/tests/TestFiles/utilitiesgui/materialinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>Atom Fraction</t>
   </si>
@@ -41,12 +41,18 @@
     <t>m2</t>
   </si>
   <si>
+    <t>m3</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
+    <t>Fe</t>
+  </si>
+  <si>
     <t>H-1 [1001]</t>
   </si>
   <si>
@@ -54,6 +60,9 @@
   </si>
   <si>
     <t>O-16 [8016]</t>
+  </si>
+  <si>
+    <t>Fe-56 [26056]</t>
   </si>
   <si>
     <t>Fraction</t>
@@ -420,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,10 +463,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -471,7 +480,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -488,10 +497,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0.4566635439137759</v>
@@ -505,7 +514,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0.457014591601373</v>
@@ -518,10 +527,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0.08632186448485112</v>
@@ -530,14 +539,120 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0.4369024009638531</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0.4372382578099011</v>
+      </c>
+      <c r="F8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>0.08258646951732314</v>
+      </c>
+      <c r="F9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0.007872024268240945</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0.007872024268240945</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>0.02752882317244105</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A12"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -545,7 +660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -562,13 +677,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -579,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -599,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>-3</v>
@@ -615,7 +730,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>-3</v>
@@ -627,10 +742,101 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>-3</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A9"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
